--- a/resources/seguimiento/registro diario de  trabajo.xlsx
+++ b/resources/seguimiento/registro diario de  trabajo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ceindetec\seguimientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ceindetec\app\laravel-page\resources\seguimiento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27991688-49EE-4582-B921-D784C3A6A09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFC2E7CC-CBF6-4D29-AA5A-69F16A605014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4770" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{4FDC08E2-7371-47AD-AF4E-9C70B50BEB62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4FDC08E2-7371-47AD-AF4E-9C70B50BEB62}"/>
   </bookViews>
   <sheets>
     <sheet name="Enero" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Abril" sheetId="5" r:id="rId4"/>
     <sheet name="mayo" sheetId="6" r:id="rId5"/>
     <sheet name="junio" sheetId="7" r:id="rId6"/>
+    <sheet name="Hoja1" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Abril!$A$2:$D$29</definedName>
@@ -29,6 +30,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">mayo!$A$2:$D$29</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="66">
   <si>
     <t>MUNICIPIO</t>
   </si>
@@ -237,6 +239,15 @@
   <si>
     <t>Institución educativa urbana miCta no.1</t>
   </si>
+  <si>
+    <t xml:space="preserve">recorrido en las sedes del municipio de riohacha  se inicia con la sede del pasito, luego paraver y finalmente el recorrido finaliza en la visita que se realiza en la sede de mañature </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 de enero </t>
+  </si>
+  <si>
+    <t>recorrido #1</t>
+  </si>
 </sst>
 </file>
 
@@ -368,7 +379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -420,6 +431,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -607,6 +621,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42DEEAF4-D2B4-47B1-8469-3091DDBECB32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="190500"/>
+          <a:ext cx="5181600" cy="1657350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -909,13 +978,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI29"/>
+  <dimension ref="A1:AQ36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W23" sqref="W23"/>
+      <selection pane="bottomRight" activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,15 +994,19 @@
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="3" customWidth="1"/>
     <col min="5" max="35" width="3.7109375" customWidth="1"/>
+    <col min="36" max="36" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17.140625" customWidth="1"/>
+    <col min="42" max="42" width="67.5703125" customWidth="1"/>
+    <col min="43" max="43" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:35" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1069,9 +1142,12 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="AJ2" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1120,9 +1196,13 @@
       <c r="AG3" s="7"/>
       <c r="AH3" s="7"/>
       <c r="AI3" s="7"/>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
+      <c r="AJ3" s="16">
+        <f>COUNTA(O3:AI3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
       <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
@@ -1165,9 +1245,13 @@
       <c r="AG4" s="7"/>
       <c r="AH4" s="7"/>
       <c r="AI4" s="7"/>
-    </row>
-    <row r="5" spans="1:35" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
+      <c r="AJ4" s="16">
+        <f t="shared" ref="AJ4:AJ29" si="1">COUNTA(O4:AI4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
       <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
@@ -1212,8 +1296,12 @@
       <c r="AI5" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+      <c r="AJ5" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>12</v>
       </c>
@@ -1261,9 +1349,13 @@
       <c r="AG6" s="7"/>
       <c r="AH6" s="7"/>
       <c r="AI6" s="7"/>
-    </row>
-    <row r="7" spans="1:35" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="AJ6" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -1306,9 +1398,13 @@
       <c r="AG7" s="7"/>
       <c r="AH7" s="7"/>
       <c r="AI7" s="7"/>
-    </row>
-    <row r="8" spans="1:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="AJ7" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
       <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
@@ -1349,9 +1445,13 @@
       <c r="AG8" s="7"/>
       <c r="AH8" s="7"/>
       <c r="AI8" s="7"/>
-    </row>
-    <row r="9" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
+      <c r="AJ8" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
       <c r="B9" s="8" t="s">
         <v>21</v>
       </c>
@@ -1392,12 +1492,16 @@
       <c r="AG9" s="7"/>
       <c r="AH9" s="7"/>
       <c r="AI9" s="7"/>
-    </row>
-    <row r="10" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="AJ9" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1437,10 +1541,14 @@
       <c r="AG10" s="7"/>
       <c r="AH10" s="7"/>
       <c r="AI10" s="7"/>
-    </row>
-    <row r="11" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
+      <c r="AJ10" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1478,8 +1586,12 @@
       <c r="AG11" s="7"/>
       <c r="AH11" s="7"/>
       <c r="AI11" s="7"/>
-    </row>
-    <row r="12" spans="1:35" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ11" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>28</v>
       </c>
@@ -1523,12 +1635,16 @@
       <c r="AG12" s="7"/>
       <c r="AH12" s="7"/>
       <c r="AI12" s="7"/>
-    </row>
-    <row r="13" spans="1:35" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="AJ12" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1568,10 +1684,14 @@
       <c r="AG13" s="7"/>
       <c r="AH13" s="7"/>
       <c r="AI13" s="7"/>
-    </row>
-    <row r="14" spans="1:35" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
+      <c r="AJ13" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="1" t="s">
         <v>33</v>
       </c>
@@ -1613,10 +1733,14 @@
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
       <c r="AI14" s="7"/>
-    </row>
-    <row r="15" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
+      <c r="AJ14" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="1" t="s">
         <v>34</v>
       </c>
@@ -1660,9 +1784,13 @@
       <c r="AG15" s="7"/>
       <c r="AH15" s="7"/>
       <c r="AI15" s="7"/>
-    </row>
-    <row r="16" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
+      <c r="AJ15" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
       <c r="B16" s="8" t="s">
         <v>35</v>
       </c>
@@ -1703,9 +1831,13 @@
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
       <c r="AI16" s="7"/>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
+      <c r="AJ16" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
       <c r="B17" s="8" t="s">
         <v>37</v>
       </c>
@@ -1748,10 +1880,14 @@
       <c r="AG17" s="7"/>
       <c r="AH17" s="7"/>
       <c r="AI17" s="7"/>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22" t="s">
+      <c r="AJ17" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1791,10 +1927,14 @@
       <c r="AG18" s="7"/>
       <c r="AH18" s="7"/>
       <c r="AI18" s="7"/>
-    </row>
-    <row r="19" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
+      <c r="AJ18" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="1" t="s">
         <v>39</v>
       </c>
@@ -1832,9 +1972,13 @@
       <c r="AG19" s="7"/>
       <c r="AH19" s="7"/>
       <c r="AI19" s="7"/>
-    </row>
-    <row r="20" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
+      <c r="AJ19" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
       <c r="B20" s="8" t="s">
         <v>40</v>
       </c>
@@ -1877,10 +2021,14 @@
       <c r="AG20" s="7"/>
       <c r="AH20" s="7"/>
       <c r="AI20" s="7"/>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22" t="s">
+      <c r="AJ20" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1926,10 +2074,14 @@
       <c r="AI21" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="22" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="22"/>
+      <c r="AJ21" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="1" t="s">
         <v>43</v>
       </c>
@@ -1971,10 +2123,14 @@
       <c r="AG22" s="7"/>
       <c r="AH22" s="7"/>
       <c r="AI22" s="7"/>
-    </row>
-    <row r="23" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22" t="s">
+      <c r="AJ22" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -2016,10 +2172,14 @@
       <c r="AG23" s="7"/>
       <c r="AH23" s="7"/>
       <c r="AI23" s="7"/>
-    </row>
-    <row r="24" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
+      <c r="AJ23" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="1" t="s">
         <v>46</v>
       </c>
@@ -2059,9 +2219,13 @@
       <c r="AG24" s="7"/>
       <c r="AH24" s="7"/>
       <c r="AI24" s="7"/>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
+      <c r="AJ24" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
       <c r="B25" s="8" t="s">
         <v>47</v>
       </c>
@@ -2106,9 +2270,13 @@
         <v>54</v>
       </c>
       <c r="AI25" s="7"/>
-    </row>
-    <row r="26" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="AJ25" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
         <v>48</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -2155,9 +2323,13 @@
       <c r="AG26" s="7"/>
       <c r="AH26" s="7"/>
       <c r="AI26" s="7"/>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
+      <c r="AJ26" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
       <c r="B27" s="8" t="s">
         <v>50</v>
       </c>
@@ -2204,9 +2376,13 @@
       <c r="AG27" s="7"/>
       <c r="AH27" s="7"/>
       <c r="AI27" s="7"/>
-    </row>
-    <row r="28" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
+      <c r="AJ27" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
       <c r="B28" s="8" t="s">
         <v>52</v>
       </c>
@@ -2253,9 +2429,13 @@
       <c r="AG28" s="7"/>
       <c r="AH28" s="7"/>
       <c r="AI28" s="7"/>
-    </row>
-    <row r="29" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
+      <c r="AJ28" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
       <c r="B29" s="8" t="s">
         <v>53</v>
       </c>
@@ -2302,6 +2482,27 @@
       <c r="AG29" s="7"/>
       <c r="AH29" s="7"/>
       <c r="AI29" s="7"/>
+      <c r="AJ29" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ30" s="19">
+        <f>SUM(AJ3:AJ29)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="41:43" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AO36" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP36" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:D29" xr:uid="{FC3B78DA-3322-4336-A5BA-8971AACB81BA}"/>
@@ -2332,13 +2533,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF29"/>
+  <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD24" sqref="AD24"/>
+      <selection pane="bottomRight" activeCell="AG29" sqref="AG29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2348,15 +2549,16 @@
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="3" customWidth="1"/>
     <col min="5" max="32" width="3.7109375" customWidth="1"/>
+    <col min="33" max="33" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:32" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -2481,9 +2683,12 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="AG2" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -2529,9 +2734,13 @@
       </c>
       <c r="AE3" s="7"/>
       <c r="AF3" s="7"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
+      <c r="AG3" s="16">
+        <f>COUNTA(E3:AF3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
       <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
@@ -2575,9 +2784,13 @@
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
-    </row>
-    <row r="5" spans="1:32" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
+      <c r="AG4" s="16">
+        <f t="shared" ref="AG4:AG29" si="1">COUNTA(E4:AF4)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
       <c r="B5" s="13" t="s">
         <v>10</v>
       </c>
@@ -2621,8 +2834,12 @@
       </c>
       <c r="AE5" s="7"/>
       <c r="AF5" s="7"/>
-    </row>
-    <row r="6" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="AG5" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>12</v>
       </c>
@@ -2665,9 +2882,13 @@
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
       <c r="AF6" s="7"/>
-    </row>
-    <row r="7" spans="1:32" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="AG6" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -2711,9 +2932,13 @@
       <c r="AD7" s="7"/>
       <c r="AE7" s="7"/>
       <c r="AF7" s="7"/>
-    </row>
-    <row r="8" spans="1:32" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="AG7" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
       <c r="B8" s="13" t="s">
         <v>18</v>
       </c>
@@ -2757,9 +2982,13 @@
       <c r="AD8" s="7"/>
       <c r="AE8" s="7"/>
       <c r="AF8" s="7"/>
-    </row>
-    <row r="9" spans="1:32" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
+      <c r="AG8" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
       <c r="B9" s="13" t="s">
         <v>21</v>
       </c>
@@ -2799,12 +3028,16 @@
       <c r="AD9" s="7"/>
       <c r="AE9" s="7"/>
       <c r="AF9" s="7"/>
-    </row>
-    <row r="10" spans="1:32" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="AG9" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2841,10 +3074,14 @@
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
       <c r="AF10" s="7"/>
-    </row>
-    <row r="11" spans="1:32" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
+      <c r="AG10" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
@@ -2879,8 +3116,12 @@
       <c r="AD11" s="7"/>
       <c r="AE11" s="7"/>
       <c r="AF11" s="7"/>
-    </row>
-    <row r="12" spans="1:32" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG11" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>28</v>
       </c>
@@ -2921,12 +3162,16 @@
       <c r="AD12" s="7"/>
       <c r="AE12" s="7"/>
       <c r="AF12" s="7"/>
-    </row>
-    <row r="13" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="AG12" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2963,10 +3208,14 @@
       <c r="AD13" s="7"/>
       <c r="AE13" s="7"/>
       <c r="AF13" s="7"/>
-    </row>
-    <row r="14" spans="1:32" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
+      <c r="AG13" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="1" t="s">
         <v>33</v>
       </c>
@@ -3003,10 +3252,14 @@
       <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
-    </row>
-    <row r="15" spans="1:32" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
+      <c r="AG14" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="1" t="s">
         <v>34</v>
       </c>
@@ -3047,9 +3300,13 @@
       <c r="AF15" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
+      <c r="AG15" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
       <c r="B16" s="13" t="s">
         <v>35</v>
       </c>
@@ -3087,9 +3344,13 @@
       <c r="AD16" s="7"/>
       <c r="AE16" s="7"/>
       <c r="AF16" s="7"/>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
+      <c r="AG16" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
       <c r="B17" s="13" t="s">
         <v>37</v>
       </c>
@@ -3131,10 +3392,14 @@
       <c r="AD17" s="7"/>
       <c r="AE17" s="7"/>
       <c r="AF17" s="7"/>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22" t="s">
+      <c r="AG17" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -3171,10 +3436,14 @@
       <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
       <c r="AF18" s="7"/>
-    </row>
-    <row r="19" spans="1:32" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
+      <c r="AG18" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="1" t="s">
         <v>39</v>
       </c>
@@ -3217,9 +3486,13 @@
       <c r="AD19" s="7"/>
       <c r="AE19" s="7"/>
       <c r="AF19" s="7"/>
-    </row>
-    <row r="20" spans="1:32" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
+      <c r="AG19" s="16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
       <c r="B20" s="13" t="s">
         <v>40</v>
       </c>
@@ -3261,10 +3534,14 @@
       <c r="AD20" s="7"/>
       <c r="AE20" s="7"/>
       <c r="AF20" s="7"/>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22" t="s">
+      <c r="AG20" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -3303,10 +3580,14 @@
       <c r="AD21" s="7"/>
       <c r="AE21" s="7"/>
       <c r="AF21" s="7"/>
-    </row>
-    <row r="22" spans="1:32" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="22"/>
+      <c r="AG21" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="1" t="s">
         <v>43</v>
       </c>
@@ -3343,10 +3624,14 @@
       <c r="AD22" s="7"/>
       <c r="AE22" s="7"/>
       <c r="AF22" s="7"/>
-    </row>
-    <row r="23" spans="1:32" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22" t="s">
+      <c r="AG22" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -3391,10 +3676,14 @@
       <c r="AF23" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="24" spans="1:32" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
+      <c r="AG23" s="16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="1" t="s">
         <v>46</v>
       </c>
@@ -3437,9 +3726,13 @@
       <c r="AF24" s="14" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
+      <c r="AG24" s="16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
       <c r="B25" s="13" t="s">
         <v>47</v>
       </c>
@@ -3479,9 +3772,13 @@
       <c r="AD25" s="7"/>
       <c r="AE25" s="7"/>
       <c r="AF25" s="7"/>
-    </row>
-    <row r="26" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="AG25" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
         <v>48</v>
       </c>
       <c r="B26" s="13" t="s">
@@ -3525,9 +3822,13 @@
       <c r="AD26" s="7"/>
       <c r="AE26" s="7"/>
       <c r="AF26" s="7"/>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
+      <c r="AG26" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
       <c r="B27" s="13" t="s">
         <v>50</v>
       </c>
@@ -3571,9 +3872,13 @@
       </c>
       <c r="AE27" s="7"/>
       <c r="AF27" s="7"/>
-    </row>
-    <row r="28" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
+      <c r="AG27" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
       <c r="B28" s="13" t="s">
         <v>52</v>
       </c>
@@ -3615,9 +3920,13 @@
       <c r="AD28" s="7"/>
       <c r="AE28" s="7"/>
       <c r="AF28" s="7"/>
-    </row>
-    <row r="29" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
+      <c r="AG28" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
       <c r="B29" s="13" t="s">
         <v>53</v>
       </c>
@@ -3659,6 +3968,16 @@
       <c r="AD29" s="7"/>
       <c r="AE29" s="7"/>
       <c r="AF29" s="7"/>
+      <c r="AG29" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG30" s="19">
+        <f>SUM(AG3:AG29)</f>
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:D29" xr:uid="{FC3B78DA-3322-4336-A5BA-8971AACB81BA}"/>
@@ -3694,13 +4013,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AJ29"/>
+  <dimension ref="A1:AJ30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13:B15"/>
+      <selection pane="bottomRight" activeCell="AK24" sqref="AK24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3710,6 +4029,7 @@
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="3" customWidth="1"/>
     <col min="5" max="35" width="3.7109375" customWidth="1"/>
+    <col min="36" max="36" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -3855,10 +4175,12 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AJ2" s="6"/>
+      <c r="AJ2" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="3" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -3901,9 +4223,13 @@
       <c r="AG3" s="10"/>
       <c r="AH3" s="10"/>
       <c r="AI3" s="10"/>
+      <c r="AJ3" s="16">
+        <f>COUNTA(E3:AI3)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
@@ -3944,9 +4270,13 @@
       <c r="AG4" s="10"/>
       <c r="AH4" s="10"/>
       <c r="AI4" s="10"/>
+      <c r="AJ4" s="16">
+        <f t="shared" ref="AJ4:AJ29" si="1">COUNTA(E4:AI4)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:36" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="13" t="s">
         <v>10</v>
       </c>
@@ -3987,6 +4317,10 @@
       <c r="AG5" s="10"/>
       <c r="AH5" s="10"/>
       <c r="AI5" s="10"/>
+      <c r="AJ5" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
@@ -4036,9 +4370,13 @@
       <c r="AG6" s="7"/>
       <c r="AH6" s="7"/>
       <c r="AI6" s="7"/>
+      <c r="AJ6" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:36" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="22" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -4093,9 +4431,13 @@
       <c r="AG7" s="7"/>
       <c r="AH7" s="7"/>
       <c r="AI7" s="7"/>
+      <c r="AJ7" s="16">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:36" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="13" t="s">
         <v>18</v>
       </c>
@@ -4136,9 +4478,13 @@
       <c r="AG8" s="7"/>
       <c r="AH8" s="7"/>
       <c r="AI8" s="7"/>
+      <c r="AJ8" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="13" t="s">
         <v>21</v>
       </c>
@@ -4179,12 +4525,16 @@
       <c r="AG9" s="7"/>
       <c r="AH9" s="7"/>
       <c r="AI9" s="7"/>
+      <c r="AJ9" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -4230,10 +4580,14 @@
       <c r="AG10" s="7"/>
       <c r="AH10" s="7"/>
       <c r="AI10" s="7"/>
+      <c r="AJ10" s="16">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
@@ -4279,6 +4633,10 @@
       <c r="AI11" s="7" t="s">
         <v>54</v>
       </c>
+      <c r="AJ11" s="16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:36" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
@@ -4336,12 +4694,16 @@
       <c r="AG12" s="7"/>
       <c r="AH12" s="7"/>
       <c r="AI12" s="7"/>
+      <c r="AJ12" s="16">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -4381,10 +4743,14 @@
       <c r="AG13" s="7"/>
       <c r="AH13" s="7"/>
       <c r="AI13" s="7"/>
+      <c r="AJ13" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:36" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="1" t="s">
         <v>33</v>
       </c>
@@ -4424,10 +4790,14 @@
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
       <c r="AI14" s="7"/>
+      <c r="AJ14" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="1" t="s">
         <v>34</v>
       </c>
@@ -4465,9 +4835,13 @@
       <c r="AG15" s="7"/>
       <c r="AH15" s="7"/>
       <c r="AI15" s="7"/>
+      <c r="AJ15" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="13" t="s">
         <v>35</v>
       </c>
@@ -4508,9 +4882,13 @@
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
       <c r="AI16" s="7"/>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
+      <c r="AJ16" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
       <c r="B17" s="13" t="s">
         <v>37</v>
       </c>
@@ -4555,10 +4933,14 @@
       <c r="AG17" s="7"/>
       <c r="AH17" s="7"/>
       <c r="AI17" s="7"/>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22" t="s">
+      <c r="AJ17" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -4600,10 +4982,14 @@
       <c r="AG18" s="7"/>
       <c r="AH18" s="7"/>
       <c r="AI18" s="7"/>
-    </row>
-    <row r="19" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
+      <c r="AJ18" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="1" t="s">
         <v>39</v>
       </c>
@@ -4647,9 +5033,13 @@
       <c r="AG19" s="7"/>
       <c r="AH19" s="7"/>
       <c r="AI19" s="7"/>
-    </row>
-    <row r="20" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
+      <c r="AJ19" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
       <c r="B20" s="13" t="s">
         <v>40</v>
       </c>
@@ -4692,10 +5082,14 @@
       <c r="AG20" s="7"/>
       <c r="AH20" s="7"/>
       <c r="AI20" s="7"/>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22" t="s">
+      <c r="AJ20" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -4739,10 +5133,14 @@
       <c r="AG21" s="7"/>
       <c r="AH21" s="7"/>
       <c r="AI21" s="7"/>
-    </row>
-    <row r="22" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="22"/>
+      <c r="AJ21" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="1" t="s">
         <v>43</v>
       </c>
@@ -4782,10 +5180,14 @@
       <c r="AG22" s="7"/>
       <c r="AH22" s="7"/>
       <c r="AI22" s="7"/>
-    </row>
-    <row r="23" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22" t="s">
+      <c r="AJ22" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -4825,10 +5227,14 @@
       <c r="AG23" s="7"/>
       <c r="AH23" s="7"/>
       <c r="AI23" s="7"/>
-    </row>
-    <row r="24" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
+      <c r="AJ23" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="1" t="s">
         <v>46</v>
       </c>
@@ -4866,9 +5272,13 @@
       <c r="AG24" s="7"/>
       <c r="AH24" s="7"/>
       <c r="AI24" s="7"/>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
+      <c r="AJ24" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
       <c r="B25" s="13" t="s">
         <v>47</v>
       </c>
@@ -4909,9 +5319,13 @@
       <c r="AG25" s="10"/>
       <c r="AH25" s="10"/>
       <c r="AI25" s="10"/>
-    </row>
-    <row r="26" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="AJ25" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
         <v>48</v>
       </c>
       <c r="B26" s="13" t="s">
@@ -4954,9 +5368,13 @@
       <c r="AG26" s="10"/>
       <c r="AH26" s="10"/>
       <c r="AI26" s="10"/>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
+      <c r="AJ26" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
       <c r="B27" s="13" t="s">
         <v>50</v>
       </c>
@@ -4997,9 +5415,13 @@
       <c r="AG27" s="10"/>
       <c r="AH27" s="10"/>
       <c r="AI27" s="10"/>
-    </row>
-    <row r="28" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
+      <c r="AJ27" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
       <c r="B28" s="13" t="s">
         <v>52</v>
       </c>
@@ -5040,9 +5462,13 @@
       <c r="AG28" s="10"/>
       <c r="AH28" s="10"/>
       <c r="AI28" s="10"/>
-    </row>
-    <row r="29" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
+      <c r="AJ28" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
       <c r="B29" s="13" t="s">
         <v>53</v>
       </c>
@@ -5085,6 +5511,16 @@
       <c r="AG29" s="10"/>
       <c r="AH29" s="10"/>
       <c r="AI29" s="10"/>
+      <c r="AJ29" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ30" s="19">
+        <f>SUM(AJ3:AJ29)</f>
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:D29" xr:uid="{FC3B78DA-3322-4336-A5BA-8971AACB81BA}"/>
@@ -5125,13 +5561,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI29"/>
+  <dimension ref="A1:AI30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="L12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AI1" sqref="AI1:AI1048576"/>
+      <selection pane="bottomRight" activeCell="AM8" sqref="AM8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5141,6 +5577,7 @@
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="3" customWidth="1"/>
     <col min="5" max="34" width="3.7109375" customWidth="1"/>
+    <col min="35" max="35" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
@@ -5282,10 +5719,12 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AI2" s="6"/>
+      <c r="AI2" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="3" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -5327,9 +5766,13 @@
       <c r="AF3" s="7"/>
       <c r="AG3" s="10"/>
       <c r="AH3" s="10"/>
+      <c r="AI3" s="16">
+        <f t="shared" ref="AI3:AI29" si="1">COUNTA(E3:AH3)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
@@ -5369,9 +5812,13 @@
       <c r="AF4" s="7"/>
       <c r="AG4" s="10"/>
       <c r="AH4" s="10"/>
+      <c r="AI4" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:35" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="13" t="s">
         <v>10</v>
       </c>
@@ -5411,6 +5858,10 @@
       <c r="AF5" s="7"/>
       <c r="AG5" s="10"/>
       <c r="AH5" s="10"/>
+      <c r="AI5" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
@@ -5455,9 +5906,13 @@
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
       <c r="AH6" s="7"/>
+      <c r="AI6" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:35" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="22" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -5499,9 +5954,13 @@
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
       <c r="AH7" s="7"/>
+      <c r="AI7" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="13" t="s">
         <v>18</v>
       </c>
@@ -5541,9 +6000,13 @@
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
       <c r="AH8" s="7"/>
+      <c r="AI8" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="13" t="s">
         <v>21</v>
       </c>
@@ -5583,12 +6046,16 @@
       <c r="AF9" s="7"/>
       <c r="AG9" s="7"/>
       <c r="AH9" s="7"/>
+      <c r="AI9" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -5636,10 +6103,14 @@
       <c r="AF10" s="7"/>
       <c r="AG10" s="7"/>
       <c r="AH10" s="7"/>
+      <c r="AI10" s="16">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
@@ -5688,6 +6159,10 @@
       <c r="AH11" s="7" t="s">
         <v>54</v>
       </c>
+      <c r="AI11" s="16">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:35" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
@@ -5748,12 +6223,16 @@
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
       <c r="AH12" s="7"/>
+      <c r="AI12" s="16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:35" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -5792,10 +6271,14 @@
       <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
       <c r="AH13" s="7"/>
+      <c r="AI13" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:35" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="1" t="s">
         <v>33</v>
       </c>
@@ -5832,10 +6315,14 @@
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
+      <c r="AI14" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="1" t="s">
         <v>34</v>
       </c>
@@ -5872,9 +6359,13 @@
       <c r="AF15" s="7"/>
       <c r="AG15" s="7"/>
       <c r="AH15" s="7"/>
+      <c r="AI15" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="13" t="s">
         <v>35</v>
       </c>
@@ -5914,9 +6405,13 @@
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
+      <c r="AI16" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
       <c r="B17" s="13" t="s">
         <v>37</v>
       </c>
@@ -5956,10 +6451,14 @@
       <c r="AF17" s="7"/>
       <c r="AG17" s="7"/>
       <c r="AH17" s="7"/>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22" t="s">
+      <c r="AI17" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -5998,10 +6497,14 @@
       <c r="AF18" s="7"/>
       <c r="AG18" s="7"/>
       <c r="AH18" s="7"/>
-    </row>
-    <row r="19" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
+      <c r="AI18" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="1" t="s">
         <v>39</v>
       </c>
@@ -6038,9 +6541,13 @@
       <c r="AF19" s="7"/>
       <c r="AG19" s="7"/>
       <c r="AH19" s="7"/>
-    </row>
-    <row r="20" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
+      <c r="AI19" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
       <c r="B20" s="13" t="s">
         <v>40</v>
       </c>
@@ -6082,10 +6589,14 @@
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
       <c r="AH20" s="7"/>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22" t="s">
+      <c r="AI20" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -6124,10 +6635,14 @@
       <c r="AF21" s="7"/>
       <c r="AG21" s="7"/>
       <c r="AH21" s="7"/>
-    </row>
-    <row r="22" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="22"/>
+      <c r="AI21" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="1" t="s">
         <v>43</v>
       </c>
@@ -6166,10 +6681,14 @@
       <c r="AF22" s="7"/>
       <c r="AG22" s="7"/>
       <c r="AH22" s="7"/>
-    </row>
-    <row r="23" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22" t="s">
+      <c r="AI22" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -6208,10 +6727,14 @@
       <c r="AF23" s="7"/>
       <c r="AG23" s="7"/>
       <c r="AH23" s="7"/>
-    </row>
-    <row r="24" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
+      <c r="AI23" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="1" t="s">
         <v>46</v>
       </c>
@@ -6248,9 +6771,13 @@
       <c r="AF24" s="14"/>
       <c r="AG24" s="7"/>
       <c r="AH24" s="7"/>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
+      <c r="AI24" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
       <c r="B25" s="13" t="s">
         <v>47</v>
       </c>
@@ -6290,9 +6817,13 @@
       <c r="AF25" s="7"/>
       <c r="AG25" s="10"/>
       <c r="AH25" s="10"/>
-    </row>
-    <row r="26" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="AI25" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
         <v>48</v>
       </c>
       <c r="B26" s="13" t="s">
@@ -6334,9 +6865,13 @@
       <c r="AF26" s="7"/>
       <c r="AG26" s="10"/>
       <c r="AH26" s="10"/>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
+      <c r="AI26" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
       <c r="B27" s="13" t="s">
         <v>50</v>
       </c>
@@ -6376,9 +6911,13 @@
       <c r="AF27" s="7"/>
       <c r="AG27" s="10"/>
       <c r="AH27" s="10"/>
-    </row>
-    <row r="28" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
+      <c r="AI27" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
       <c r="B28" s="13" t="s">
         <v>52</v>
       </c>
@@ -6418,9 +6957,13 @@
       <c r="AF28" s="7"/>
       <c r="AG28" s="10"/>
       <c r="AH28" s="10"/>
-    </row>
-    <row r="29" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
+      <c r="AI28" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
       <c r="B29" s="13" t="s">
         <v>53</v>
       </c>
@@ -6460,6 +7003,16 @@
       <c r="AF29" s="7"/>
       <c r="AG29" s="10"/>
       <c r="AH29" s="10"/>
+      <c r="AI29" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI30" s="19">
+        <f>SUM(AI3:AI29)</f>
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:D29" xr:uid="{FC3B78DA-3322-4336-A5BA-8971AACB81BA}"/>
@@ -6506,7 +7059,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="AJ1" sqref="AJ1:AJ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6621,47 +7174,47 @@
         <v>20</v>
       </c>
       <c r="Y2" s="6">
-        <f t="shared" ref="Y2" si="1">1+X2</f>
+        <f t="shared" ref="Y2:AI2" si="1">1+X2</f>
         <v>21</v>
       </c>
       <c r="Z2" s="6">
-        <f t="shared" ref="Z2" si="2">1+Y2</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="AA2" s="6">
-        <f t="shared" ref="AA2" si="3">1+Z2</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="AB2" s="6">
-        <f t="shared" ref="AB2" si="4">1+AA2</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="AC2" s="6">
-        <f t="shared" ref="AC2" si="5">1+AB2</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="AD2" s="6">
-        <f t="shared" ref="AD2" si="6">1+AC2</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="AE2" s="6">
-        <f t="shared" ref="AE2" si="7">1+AD2</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="AF2" s="6">
-        <f t="shared" ref="AF2" si="8">1+AE2</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="AG2" s="6">
-        <f t="shared" ref="AG2" si="9">1+AF2</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="AH2" s="6">
-        <f t="shared" ref="AH2" si="10">1+AG2</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="AI2" s="6">
-        <f t="shared" ref="AI2" si="11">1+AH2</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="AJ2" s="6" t="s">
@@ -6669,7 +7222,7 @@
       </c>
     </row>
     <row r="3" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -6711,12 +7264,12 @@
       <c r="AH3" s="10"/>
       <c r="AI3" s="10"/>
       <c r="AJ3" s="16">
-        <f t="shared" ref="AJ3:AJ13" si="12">COUNTA(E3:AI3)</f>
+        <f t="shared" ref="AJ3:AJ13" si="2">COUNTA(E3:AI3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
@@ -6758,12 +7311,12 @@
       <c r="AH4" s="10"/>
       <c r="AI4" s="10"/>
       <c r="AJ4" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="13" t="s">
         <v>10</v>
       </c>
@@ -6805,7 +7358,7 @@
       <c r="AH5" s="10"/>
       <c r="AI5" s="10"/>
       <c r="AJ5" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6854,12 +7407,12 @@
       <c r="AH6" s="7"/>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="22" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -6905,12 +7458,12 @@
       <c r="AH7" s="7"/>
       <c r="AI7" s="7"/>
       <c r="AJ7" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:36" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="13" t="s">
         <v>18</v>
       </c>
@@ -6954,12 +7507,12 @@
       <c r="AH8" s="7"/>
       <c r="AI8" s="7"/>
       <c r="AJ8" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="13" t="s">
         <v>21</v>
       </c>
@@ -7005,15 +7558,15 @@
       <c r="AH9" s="7"/>
       <c r="AI9" s="7"/>
       <c r="AJ9" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -7048,13 +7601,13 @@
       <c r="AH10" s="7"/>
       <c r="AI10" s="7"/>
       <c r="AJ10" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
@@ -7093,7 +7646,7 @@
       <c r="AH11" s="7"/>
       <c r="AI11" s="7"/>
       <c r="AJ11" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7142,15 +7695,15 @@
       <c r="AH12" s="7"/>
       <c r="AI12" s="7"/>
       <c r="AJ12" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -7195,13 +7748,13 @@
       <c r="AH13" s="7"/>
       <c r="AI13" s="7"/>
       <c r="AJ13" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="1" t="s">
         <v>33</v>
       </c>
@@ -7251,8 +7804,8 @@
       </c>
     </row>
     <row r="15" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="1" t="s">
         <v>34</v>
       </c>
@@ -7295,12 +7848,12 @@
       <c r="AH15" s="7"/>
       <c r="AI15" s="7"/>
       <c r="AJ15" s="16">
-        <f t="shared" ref="AJ15:AJ29" si="13">COUNTA(E15:AI15)</f>
+        <f t="shared" ref="AJ15:AJ29" si="3">COUNTA(E15:AI15)</f>
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="13" t="s">
         <v>35</v>
       </c>
@@ -7346,12 +7899,12 @@
       <c r="AH16" s="7"/>
       <c r="AI16" s="7"/>
       <c r="AJ16" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="13" t="s">
         <v>37</v>
       </c>
@@ -7393,13 +7946,13 @@
       <c r="AH17" s="7"/>
       <c r="AI17" s="7"/>
       <c r="AJ17" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22" t="s">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -7446,13 +7999,13 @@
       <c r="AH18" s="7"/>
       <c r="AI18" s="7"/>
       <c r="AJ18" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:37" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="1" t="s">
         <v>39</v>
       </c>
@@ -7491,12 +8044,12 @@
       <c r="AH19" s="7"/>
       <c r="AI19" s="7"/>
       <c r="AJ19" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:37" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="13" t="s">
         <v>62</v>
       </c>
@@ -7544,13 +8097,13 @@
       <c r="AH20" s="7"/>
       <c r="AI20" s="7"/>
       <c r="AJ20" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="22"/>
+      <c r="B21" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -7603,7 +8156,7 @@
       <c r="AH21" s="7"/>
       <c r="AI21" s="7"/>
       <c r="AJ21" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="AK21" t="s">
@@ -7611,8 +8164,8 @@
       </c>
     </row>
     <row r="22" spans="1:37" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="22"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="1" t="s">
         <v>43</v>
       </c>
@@ -7670,8 +8223,8 @@
       </c>
     </row>
     <row r="23" spans="1:37" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22" t="s">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -7714,13 +8267,13 @@
       <c r="AH23" s="7"/>
       <c r="AI23" s="7"/>
       <c r="AJ23" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:37" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="1" t="s">
         <v>46</v>
       </c>
@@ -7761,12 +8314,12 @@
       <c r="AH24" s="7"/>
       <c r="AI24" s="7"/>
       <c r="AJ24" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="13" t="s">
         <v>47</v>
       </c>
@@ -7808,12 +8361,12 @@
       <c r="AH25" s="10"/>
       <c r="AI25" s="10"/>
       <c r="AJ25" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="22" t="s">
         <v>48</v>
       </c>
       <c r="B26" s="13" t="s">
@@ -7857,12 +8410,12 @@
       <c r="AH26" s="10"/>
       <c r="AI26" s="10"/>
       <c r="AJ26" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="13" t="s">
         <v>50</v>
       </c>
@@ -7908,12 +8461,12 @@
       <c r="AH27" s="10"/>
       <c r="AI27" s="10"/>
       <c r="AJ27" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="13" t="s">
         <v>52</v>
       </c>
@@ -7955,12 +8508,12 @@
       <c r="AH28" s="10"/>
       <c r="AI28" s="10"/>
       <c r="AJ28" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:37" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="13" t="s">
         <v>53</v>
       </c>
@@ -8002,7 +8555,7 @@
       <c r="AH29" s="10"/>
       <c r="AI29" s="10"/>
       <c r="AJ29" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8016,83 +8569,83 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <f t="shared" ref="G30:AI30" si="14">COUNTA(G3:G29)</f>
+        <f t="shared" ref="G30:AI30" si="4">COUNTA(G3:G29)</f>
         <v>1</v>
       </c>
       <c r="H30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="J30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="O30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="R30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="S30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="W30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Y30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="Z30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA30">
@@ -8100,35 +8653,35 @@
         <v>4</v>
       </c>
       <c r="AB30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AE30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AH30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AJ30" s="19">
@@ -8190,11 +8743,11 @@
   </sheetPr>
   <dimension ref="A1:AJ30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+    <sheetView zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8353,7 +8906,7 @@
       </c>
     </row>
     <row r="3" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="18" t="s">
@@ -8405,7 +8958,7 @@
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="18" t="s">
         <v>8</v>
       </c>
@@ -8451,7 +9004,7 @@
       </c>
     </row>
     <row r="5" spans="1:35" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="18" t="s">
         <v>10</v>
       </c>
@@ -8553,7 +9106,7 @@
       </c>
     </row>
     <row r="7" spans="1:35" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="22" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="18" t="s">
@@ -8601,7 +9154,7 @@
       </c>
     </row>
     <row r="8" spans="1:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="18" t="s">
         <v>18</v>
       </c>
@@ -8647,7 +9200,7 @@
       </c>
     </row>
     <row r="9" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="18" t="s">
         <v>21</v>
       </c>
@@ -8695,10 +9248,10 @@
       </c>
     </row>
     <row r="10" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -8743,8 +9296,8 @@
       </c>
     </row>
     <row r="11" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
@@ -8839,10 +9392,10 @@
       </c>
     </row>
     <row r="13" spans="1:35" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -8887,8 +9440,8 @@
       </c>
     </row>
     <row r="14" spans="1:35" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="1" t="s">
         <v>33</v>
       </c>
@@ -8931,8 +9484,8 @@
       </c>
     </row>
     <row r="15" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="1" t="s">
         <v>34</v>
       </c>
@@ -8975,7 +9528,7 @@
       </c>
     </row>
     <row r="16" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="18" t="s">
         <v>35</v>
       </c>
@@ -9021,7 +9574,7 @@
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="18" t="s">
         <v>37</v>
       </c>
@@ -9067,8 +9620,8 @@
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22" t="s">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -9113,8 +9666,8 @@
       </c>
     </row>
     <row r="19" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="1" t="s">
         <v>39</v>
       </c>
@@ -9157,7 +9710,7 @@
       </c>
     </row>
     <row r="20" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="18" t="s">
         <v>62</v>
       </c>
@@ -9203,8 +9756,8 @@
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="22"/>
+      <c r="B21" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -9252,8 +9805,8 @@
       </c>
     </row>
     <row r="22" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="22"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="1" t="s">
         <v>43</v>
       </c>
@@ -9296,8 +9849,8 @@
       </c>
     </row>
     <row r="23" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22" t="s">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -9344,8 +9897,8 @@
       </c>
     </row>
     <row r="24" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="1" t="s">
         <v>46</v>
       </c>
@@ -9388,7 +9941,7 @@
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="18" t="s">
         <v>47</v>
       </c>
@@ -9434,7 +9987,7 @@
       </c>
     </row>
     <row r="26" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="22" t="s">
         <v>48</v>
       </c>
       <c r="B26" s="18" t="s">
@@ -9482,7 +10035,7 @@
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="18" t="s">
         <v>50</v>
       </c>
@@ -9528,7 +10081,7 @@
       </c>
     </row>
     <row r="28" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="18" t="s">
         <v>52</v>
       </c>
@@ -9574,7 +10127,7 @@
       </c>
     </row>
     <row r="29" spans="1:36" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="18" t="s">
         <v>53</v>
       </c>
@@ -9790,4 +10343,19 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="71" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82FF462-6A8F-4B60-9BD1-53BD7F5DC214}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>